--- a/Egyszamjatek/egyszamjatek.xlsx
+++ b/Egyszamjatek/egyszamjatek.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Munka2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="egyszamjatek" localSheetId="0">Munka1!$B$2:$L$10</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>Marci</t>
   </si>
@@ -107,12 +108,15 @@
   <si>
     <t>10. forduló</t>
   </si>
+  <si>
+    <t>nyertes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +134,34 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +174,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -154,10 +189,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,8 +204,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Jó" xfId="1" builtinId="26"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -465,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,4 +1850,435 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="6">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>13</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9</v>
+      </c>
+      <c r="K9" s="6">
+        <v>8</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+      <c r="K10" s="6">
+        <v>3</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6">
+        <v>3</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="6">
+        <v>3</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>